--- a/AEFI_Training_Sample.xlsx
+++ b/AEFI_Training_Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryadav\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F1BB6-92A0-4D43-8F3B-50E2BFD8B25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363B7465-2EA9-47A1-B840-E3561E5C459E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="55">
   <si>
     <t>Question</t>
   </si>
@@ -180,13 +180,51 @@
   </si>
   <si>
     <t>here is image</t>
+  </si>
+  <si>
+    <r>
+      <t>What is the time limit for reporting serious AEFI cases to the district level in India?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>Within 12 hours </t>
+  </si>
+  <si>
+    <t>INCORRECT: This is too stringent and not the official guideline</t>
+  </si>
+  <si>
+    <t>Within 24 hours </t>
+  </si>
+  <si>
+    <t>CORRECT: As per Indian AEFI guidelines, serious AEFIs must be reported within 24 hours to enable prompt investigation</t>
+  </si>
+  <si>
+    <t>Within 48 hours</t>
+  </si>
+  <si>
+    <t>INCORRECT: This delay could compromise timely investigation and response </t>
+  </si>
+  <si>
+    <t>Within 72 hours </t>
+  </si>
+  <si>
+    <t>INCORRECT: Too late for effective management and investigation </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +239,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -238,11 +295,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="78" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -623,11 +683,11 @@
     <col min="2" max="2" width="31.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="118.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="56.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="76.08984375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="58.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -832,6 +892,70 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
